--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_LSPMW_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_LSPMW_Lineal_No_Estacionario_ARIMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>2.467652036887471</v>
+        <v>1.072725448542408</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>2.698648693965452</v>
+        <v>1.045642245849395</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>2.552051746246231</v>
+        <v>1.063151659439023</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>2.373998339375346</v>
+        <v>1.093288041511677</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>2.911523001025154</v>
+        <v>1.083028411345536</v>
       </c>
     </row>
   </sheetData>
